--- a/test and engineering/CameraApplication1/原型类图.xlsx
+++ b/test and engineering/CameraApplication1/原型类图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1Activity_camera" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,22 +336,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从自定义切图中返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果成功了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从头像图标的路径解析成bitmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置bitmap到视图里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件名用时间表示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,6 +569,22 @@
   </si>
   <si>
     <t>直接从文件获取uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从切图中返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示请求成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入到Activity_camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将bitmap转成字节码文件放入intent里面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1324,7 +1328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -1335,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36:M38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1369,33 +1375,33 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1403,12 +1409,12 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1416,7 +1422,7 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1424,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1432,12 +1438,12 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
@@ -1445,17 +1451,17 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -1476,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
@@ -1523,130 +1529,135 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>4.2</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E98" s="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E99" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1674,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1682,92 +1693,92 @@
         <v>6.1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
